--- a/report/reliability/comb/Campus Sertão (Delmiro Gouveia e Santana do Ipanema)-Graduação (licenciatura).xlsx
+++ b/report/reliability/comb/Campus Sertão (Delmiro Gouveia e Santana do Ipanema)-Graduação (licenciatura).xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="51">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -74,22 +74,25 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item8</t>
+  </si>
+  <si>
     <t>Item9</t>
   </si>
   <si>
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -1852,6 +1855,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -2232,11 +2240,6 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3667,7 +3670,6 @@
     <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3695,13 +3697,14 @@
     <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3710,7 +3713,6 @@
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3726,13 +3728,14 @@
     <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3740,7 +3743,6 @@
     <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3756,20 +3758,20 @@
     <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3785,13 +3787,14 @@
     <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4134,31 +4137,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.7913402957425141</v>
+        <v>0.7449733811284399</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.8052169290833002</v>
+        <v>0.7517619187507882</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.9049864897923297</v>
+        <v>0.8904480736620976</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.25622522697073347</v>
+        <v>0.18893916606604733</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>4.133916388594449</v>
+        <v>3.0283907890670414</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.03128835029822357</v>
+        <v>0.03586470950514386</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.315181518151815</v>
+        <v>1.7867479055597868</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.8072246658558674</v>
+        <v>0.6610804486147566</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.26895368027456457</v>
+        <v>0.16451524840035558</v>
       </c>
     </row>
     <row r="7">
@@ -4208,28 +4211,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.764730565482341</v>
+        <v>0.7441654065727527</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.7787228282446703</v>
+        <v>0.7416205156384483</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.8805401574629279</v>
+        <v>0.8855400808054537</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.24238349210746615</v>
+        <v>0.19302104806600925</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>3.5192190051385794</v>
+        <v>2.870276320393516</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.035519668381198716</v>
+        <v>0.0367492694359227</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.05265242524852209</v>
+        <v>0.09003125413379587</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.2455245172382181</v>
+        <v>0.23414333838053766</v>
       </c>
     </row>
     <row r="12">
@@ -4237,28 +4240,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.7666376493988617</v>
+        <v>0.7160118233668413</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.7817453875608102</v>
+        <v>0.7189875537506412</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.8878828168069489</v>
+        <v>0.8710111667606817</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.24563521061621107</v>
+        <v>0.17574272623683945</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>3.5818046584404732</v>
+        <v>2.558561242916058</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.03523490782782129</v>
+        <v>0.040030087978911465</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.05721116478221967</v>
+        <v>0.08713459683794886</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.2722821586336178</v>
+        <v>0.13533492896987454</v>
       </c>
     </row>
     <row r="13">
@@ -4266,28 +4269,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.7654843873128447</v>
+        <v>0.7168639843986337</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.7762274007659345</v>
+        <v>0.7176981849465551</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.8820927135430237</v>
+        <v>0.8709618087982004</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.2397446240361973</v>
+        <v>0.17482149770603297</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>3.4688223822882014</v>
+        <v>2.542308078361742</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.03533201123402588</v>
+        <v>0.03981923987942541</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.05474805917560228</v>
+        <v>0.08959705299634602</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.2596463991558662</v>
+        <v>0.13533492896987454</v>
       </c>
     </row>
     <row r="14">
@@ -4295,28 +4298,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.767490489093248</v>
+        <v>0.7322414527232088</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.7811617915517758</v>
+        <v>0.7265536668855678</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.8874605811436284</v>
+        <v>0.8697059691839678</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.24500256583226523</v>
+        <v>0.18127995083440604</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>3.569585937898928</v>
+        <v>2.6570247207576143</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.03497934236139534</v>
+        <v>0.03824163206054905</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.059187705225336514</v>
+        <v>0.0750236553564943</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.2722821586336178</v>
+        <v>0.14707156146370715</v>
       </c>
     </row>
     <row r="15">
@@ -4324,28 +4327,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.7718777223812439</v>
+        <v>0.7070320877365536</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.7912777530610858</v>
+        <v>0.719021676936881</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.8719938902515759</v>
+        <v>0.8665907987508725</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.2563073315599614</v>
+        <v>0.17576719334509797</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>3.791056126818456</v>
+        <v>2.5589934095213454</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.0343286532318012</v>
+        <v>0.04135439962519138</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.05111558858618475</v>
+        <v>0.0737583900721556</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.2656252019155113</v>
+        <v>0.14910241863020854</v>
       </c>
     </row>
     <row r="16">
@@ -4353,28 +4356,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.7775820429038217</v>
+        <v>0.7138359049792339</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.7933230602281651</v>
+        <v>0.7222436079999112</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.8736862455743345</v>
+        <v>0.8645569446051385</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.25868363653895554</v>
+        <v>0.17809779559522437</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>3.8384691640197968</v>
+        <v>2.6002771810186847</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.03346847682352766</v>
+        <v>0.040355480209466575</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.05122890730149815</v>
+        <v>0.07273416581651915</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.2769185857765665</v>
+        <v>0.14707156146370715</v>
       </c>
     </row>
     <row r="17">
@@ -4382,28 +4385,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.8030854016653929</v>
+        <v>0.7522505063457139</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.8205684729781874</v>
+        <v>0.7856592032844767</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.9013359870561231</v>
+        <v>0.9000599111707916</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.2936563678851217</v>
+        <v>0.2339839155740712</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>4.573156605184745</v>
+        <v>3.66546740202341</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.02945260834412801</v>
+        <v>0.03570150773325843</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.04927756735829218</v>
+        <v>0.07200161457455335</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.29603124556039223</v>
+        <v>0.23414333838053766</v>
       </c>
     </row>
     <row r="18">
@@ -4411,28 +4414,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.8175675341798082</v>
+        <v>0.7542868272883564</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.8225601317955331</v>
+        <v>0.7590737849972052</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.9015282701273127</v>
+        <v>0.8851912873087815</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.2964823106062482</v>
+        <v>0.20795468865914604</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>4.6357120308930995</v>
+        <v>3.1506483633937474</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.026888428536421986</v>
+        <v>0.033583492700304224</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.04718611478962948</v>
+        <v>0.08584309045989642</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.29603124556039223</v>
+        <v>0.23414333838053766</v>
       </c>
     </row>
     <row r="19">
@@ -4440,28 +4443,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.7700192462274607</v>
+        <v>0.774762488395241</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.7873113419952058</v>
+        <v>0.7644540494647856</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.9032926121171816</v>
+        <v>0.889631588574729</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.2517876238360825</v>
+        <v>0.21288022501093215</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>3.701708165263138</v>
+        <v>3.2454561317134556</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.03491865560203906</v>
+        <v>0.03000585879968621</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.06281845185669749</v>
+        <v>0.08437594517000689</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.2596463991558662</v>
+        <v>0.23414333838053766</v>
       </c>
     </row>
     <row r="20">
@@ -4469,28 +4472,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.7814309687039345</v>
+        <v>0.7114009726933429</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.7964129405838543</v>
+        <v>0.7258277204413224</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.9066103784886167</v>
+        <v>0.8870262921453469</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.2623342846416129</v>
+        <v>0.18073871624124377</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>3.9119035505883124</v>
+        <v>2.6473417429714403</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.03307578182061278</v>
+        <v>0.04111652833749065</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.06317841327570077</v>
+        <v>0.09320740442955225</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.2722821586336178</v>
+        <v>0.14707156146370715</v>
       </c>
     </row>
     <row r="21">
@@ -4498,28 +4501,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.7583331830953994</v>
+        <v>0.7311790604195987</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.7739136432791124</v>
+        <v>0.7403538539153692</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.8768053007010521</v>
+        <v>0.8919777114776589</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.23733395382179098</v>
+        <v>0.19199512290182533</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>3.423088657377669</v>
+        <v>2.8513955053045668</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.03648092876407848</v>
+        <v>0.037834246006737335</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.05722478785316972</v>
+        <v>0.0962931589651583</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.2455245172382181</v>
+        <v>0.18823095654553262</v>
       </c>
     </row>
     <row r="22">
@@ -4527,33 +4530,57 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.7664957277754487</v>
+        <v>0.6985008158970619</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.7814837733650164</v>
+        <v>0.7136067186231246</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.8831482929158115</v>
+        <v>0.8574366081772529</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.24535132216688876</v>
+        <v>0.17193991562681898</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>3.57631918416032</v>
+        <v>2.491702023149291</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.035229584836207944</v>
+        <v>0.0427283934525079</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.05925018073145066</v>
+        <v>0.08781419154879813</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.2596463991558662</v>
+        <v>0.14707156146370715</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
+      <c r="A23" t="s" s="53">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n" s="58">
+        <v>0.7104470943715664</v>
+      </c>
+      <c r="C23" t="n" s="59">
+        <v>0.7220908299278131</v>
+      </c>
+      <c r="D23" t="n" s="60">
+        <v>0.8659802654859523</v>
+      </c>
+      <c r="E23" t="n" s="61">
+        <v>0.17798636306096785</v>
+      </c>
+      <c r="F23" t="n" s="62">
+        <v>2.598297960949797</v>
+      </c>
+      <c r="G23" t="n" s="63">
+        <v>0.04089010623327293</v>
+      </c>
+      <c r="H23" t="n" s="64">
+        <v>0.09131175398905093</v>
+      </c>
+      <c r="I23" t="n" s="65">
+        <v>0.14422593370744718</v>
       </c>
     </row>
     <row r="24">
@@ -4562,458 +4589,437 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="69">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="83">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="C26" t="s" s="83">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="D26" t="s" s="83">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="E26" t="s" s="83">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="F26" t="s" s="83">
+      <c r="E27" t="s" s="83">
         <v>35</v>
       </c>
-      <c r="G26" t="s" s="83">
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="H26" t="s" s="83">
+      <c r="H27" t="s" s="83">
         <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="79">
-        <v>18</v>
-      </c>
-      <c r="B27" t="n" s="84">
-        <v>101.0</v>
-      </c>
-      <c r="C27" t="n" s="85">
-        <v>0.6536874345702329</v>
-      </c>
-      <c r="D27" t="n" s="86">
-        <v>0.6765629379025369</v>
-      </c>
-      <c r="E27" t="n" s="87">
-        <v>0.6707732983612793</v>
-      </c>
-      <c r="F27" t="n" s="88">
-        <v>0.5622183374211949</v>
-      </c>
-      <c r="G27" t="n" s="89">
-        <v>3.0396039603960396</v>
-      </c>
-      <c r="H27" t="n" s="90">
-        <v>1.348486500334415</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="84">
         <v>101.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.6353513981666874</v>
+        <v>0.35373541930548835</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.6501425072870989</v>
+        <v>0.4599895829818647</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.627433335290723</v>
+        <v>0.4097173231496329</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.5337896904443129</v>
+        <v>0.3273469958284702</v>
       </c>
       <c r="G28" t="n" s="89">
-        <v>3.485148514851485</v>
+        <v>0.9306930693069307</v>
       </c>
       <c r="H28" t="n" s="90">
-        <v>1.4325771280188624</v>
+        <v>0.25524207108446123</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="84">
         <v>101.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.663666014357893</v>
+        <v>0.5971971774759777</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.6980039176776169</v>
+        <v>0.6349667199994578</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.6879403913157093</v>
+        <v>0.6188916056726752</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.5891246948070151</v>
+        <v>0.481193473900086</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.257425742574257</v>
+        <v>3.0396039603960396</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>1.1458923627159285</v>
+        <v>1.348486500334415</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="84">
         <v>101.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.6299183481468975</v>
+        <v>0.5936186976264843</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.6552827885179336</v>
+        <v>0.6442959785034461</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.6321502378950583</v>
+        <v>0.6263467804519642</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.5374182143915253</v>
+        <v>0.4686440547820755</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>3.4455445544554455</v>
+        <v>3.485148514851485</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.3074803824513197</v>
+        <v>1.4325771280188624</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n" s="84">
         <v>101.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.5987012793314166</v>
+        <v>0.5835894238028774</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.5634308100243646</v>
+        <v>0.5788913837089916</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.5805789511918817</v>
+        <v>0.5995584775219097</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.4773718497370953</v>
+        <v>0.5474576543192151</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>0.900990099009901</v>
+        <v>0.27722772277227725</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>1.584329198715024</v>
+        <v>0.4498624652310552</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>101.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.5818458551188878</v>
+        <v>0.6589971769659515</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.5441231729549835</v>
+        <v>0.6347189422004036</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.5598585837593921</v>
+        <v>0.660848398535692</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.43635034150817065</v>
+        <v>0.5336762808526085</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>1.0594059405940595</v>
+        <v>0.900990099009901</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.8156088905830894</v>
+        <v>1.584329198715024</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>101.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.2685258123998752</v>
+        <v>0.6393683426795932</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.2599673890275539</v>
+        <v>0.6111169909642937</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.19596871075363434</v>
+        <v>0.6396361544226898</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.13183946434351154</v>
+        <v>0.48645698992484254</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.99009900990099</v>
+        <v>1.0594059405940595</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.360110653623083</v>
+        <v>1.8156088905830894</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>101.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.2567379331592689</v>
+        <v>-0.05208450021686822</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.23700641519604565</v>
+        <v>0.04515963876291016</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.1731816003624735</v>
+        <v>-0.03243247184104991</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.0764283474062242</v>
+        <v>-0.07958226024246821</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>3.4554455445544554</v>
+        <v>0.9405940594059405</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.769320505025856</v>
+        <v>0.23756187312857346</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>101.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.6100332311461997</v>
+        <v>0.29705884233823376</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.6001537379160818</v>
+        <v>0.3087569747417893</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.5279366249772918</v>
+        <v>0.2581803297004993</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.4955676446930528</v>
+        <v>0.14384673876345863</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.1386138613861385</v>
+        <v>2.99009900990099</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.5299000161467875</v>
+        <v>1.360110653623083</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>101.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.5082266698457376</v>
+        <v>0.26932457325786197</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.5144614126770716</v>
+        <v>0.2588761901590758</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.431589127630365</v>
+        <v>0.19870000698156592</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.38273085885008995</v>
+        <v>0.06573893616779439</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>1.7821782178217822</v>
+        <v>3.4554455445544554</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.4669966625458941</v>
+        <v>1.769320505025856</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>101.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.7078962967532492</v>
+        <v>0.6318907296582337</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.7175907745857846</v>
+        <v>0.5843724530224788</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.7134160603534626</v>
+        <v>0.5119351452201648</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.6254268345896842</v>
+        <v>0.5053284078039284</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>1.6633663366336633</v>
+        <v>1.1386138613861385</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.3731513224897849</v>
+        <v>1.5299000161467875</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>101.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.6393104746292844</v>
+        <v>0.4989197433839408</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.6524491199467353</v>
+        <v>0.47037910169774794</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.6387418954160066</v>
+        <v>0.38465676994762504</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.5484723964965939</v>
+        <v>0.354174898284745</v>
       </c>
       <c r="G38" t="n" s="89">
+        <v>1.7821782178217822</v>
+      </c>
+      <c r="H38" t="n" s="90">
+        <v>1.4669966625458941</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="79">
+        <v>29</v>
+      </c>
+      <c r="B39" t="n" s="84">
+        <v>101.0</v>
+      </c>
+      <c r="C39" t="n" s="85">
+        <v>0.7141326173252294</v>
+      </c>
+      <c r="D39" t="n" s="86">
+        <v>0.6734776888157777</v>
+      </c>
+      <c r="E39" t="n" s="87">
+        <v>0.6735535012414456</v>
+      </c>
+      <c r="F39" t="n" s="88">
+        <v>0.620825693227171</v>
+      </c>
+      <c r="G39" t="n" s="89">
+        <v>1.6633663366336633</v>
+      </c>
+      <c r="H39" t="n" s="90">
+        <v>1.3731513224897849</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="79">
+        <v>30</v>
+      </c>
+      <c r="B40" t="n" s="84">
+        <v>101.0</v>
+      </c>
+      <c r="C40" t="n" s="85">
+        <v>0.6374456440773085</v>
+      </c>
+      <c r="D40" t="n" s="86">
+        <v>0.6122454654774785</v>
+      </c>
+      <c r="E40" t="n" s="87">
+        <v>0.6003141185886609</v>
+      </c>
+      <c r="F40" t="n" s="88">
+        <v>0.532997193898881</v>
+      </c>
+      <c r="G40" t="n" s="89">
         <v>1.5643564356435644</v>
       </c>
-      <c r="H38" t="n" s="90">
+      <c r="H40" t="n" s="90">
         <v>1.3070259491238758</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
+    <row r="41">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="94">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s" s="108">
+    <row r="43">
+      <c r="A43" t="s" s="94">
         <v>37</v>
       </c>
-      <c r="C42" t="s" s="108">
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
         <v>38</v>
       </c>
-      <c r="D42" t="s" s="108">
+      <c r="C44" t="s" s="108">
         <v>39</v>
       </c>
-      <c r="E42" t="s" s="108">
+      <c r="D44" t="s" s="108">
         <v>40</v>
       </c>
-      <c r="F42" t="s" s="108">
+      <c r="E44" t="s" s="108">
         <v>41</v>
       </c>
-      <c r="G42" t="s" s="108">
+      <c r="F44" t="s" s="108">
         <v>42</v>
       </c>
-      <c r="H42" t="s" s="108">
+      <c r="G44" t="s" s="108">
         <v>43</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="104">
-        <v>18</v>
-      </c>
-      <c r="B43" t="n" s="109">
-        <v>0.06930693069306931</v>
-      </c>
-      <c r="C43" t="n" s="110">
-        <v>0.1188118811881188</v>
-      </c>
-      <c r="D43" t="n" s="111">
-        <v>0.0297029702970297</v>
-      </c>
-      <c r="E43" t="n" s="112">
-        <v>0.3465346534653465</v>
-      </c>
-      <c r="F43" t="n" s="113">
-        <v>0.3564356435643564</v>
-      </c>
-      <c r="G43" t="n" s="114">
-        <v>0.07920792079207921</v>
-      </c>
-      <c r="H43" t="n" s="115">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="104">
-        <v>19</v>
-      </c>
-      <c r="B44" t="n" s="109">
-        <v>0.06930693069306931</v>
-      </c>
-      <c r="C44" t="n" s="110">
-        <v>0.019801980198019802</v>
-      </c>
-      <c r="D44" t="n" s="111">
-        <v>0.09900990099009901</v>
-      </c>
-      <c r="E44" t="n" s="112">
-        <v>0.297029702970297</v>
-      </c>
-      <c r="F44" t="n" s="113">
-        <v>0.19801980198019803</v>
-      </c>
-      <c r="G44" t="n" s="114">
-        <v>0.31683168316831684</v>
-      </c>
-      <c r="H44" t="n" s="115">
-        <v>0.0</v>
+      <c r="H44" t="s" s="108">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.039603960396039604</v>
+        <v>0.06930693069306931</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.06930693069306931</v>
+        <v>0.9306930693069307</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.0297029702970297</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.39603960396039606</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.38613861386138615</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.07920792079207921</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5021,25 +5027,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="104">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n" s="109">
-        <v>0.039603960396039604</v>
+        <v>0.06930693069306931</v>
       </c>
       <c r="C46" t="n" s="110">
-        <v>0.019801980198019802</v>
+        <v>0.1188118811881188</v>
       </c>
       <c r="D46" t="n" s="111">
-        <v>0.10891089108910891</v>
+        <v>0.0297029702970297</v>
       </c>
       <c r="E46" t="n" s="112">
-        <v>0.43564356435643564</v>
+        <v>0.3465346534653465</v>
       </c>
       <c r="F46" t="n" s="113">
+        <v>0.3564356435643564</v>
+      </c>
+      <c r="G46" t="n" s="114">
         <v>0.07920792079207921</v>
-      </c>
-      <c r="G46" t="n" s="114">
-        <v>0.31683168316831684</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5047,25 +5053,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="104">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n" s="109">
-        <v>0.7227722772277227</v>
+        <v>0.06930693069306931</v>
       </c>
       <c r="C47" t="n" s="110">
-        <v>0.039603960396039604</v>
+        <v>0.019801980198019802</v>
       </c>
       <c r="D47" t="n" s="111">
-        <v>0.009900990099009901</v>
+        <v>0.09900990099009901</v>
       </c>
       <c r="E47" t="n" s="112">
-        <v>0.09900990099009901</v>
+        <v>0.297029702970297</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.09900990099009901</v>
+        <v>0.19801980198019803</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.0297029702970297</v>
+        <v>0.31683168316831684</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5073,25 +5079,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n" s="109">
         <v>0.7227722772277227</v>
       </c>
       <c r="C48" t="n" s="110">
+        <v>0.27722772277227725</v>
+      </c>
+      <c r="D48" t="n" s="111">
         <v>0.0</v>
       </c>
-      <c r="D48" t="n" s="111">
-        <v>0.04950495049504951</v>
-      </c>
       <c r="E48" t="n" s="112">
-        <v>0.04950495049504951</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.07920792079207921</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.09900990099009901</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5099,25 +5105,25 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="104">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" t="n" s="109">
-        <v>0.0594059405940594</v>
+        <v>0.7227722772277227</v>
       </c>
       <c r="C49" t="n" s="110">
-        <v>0.1485148514851485</v>
+        <v>0.039603960396039604</v>
       </c>
       <c r="D49" t="n" s="111">
-        <v>0.019801980198019802</v>
+        <v>0.009900990099009901</v>
       </c>
       <c r="E49" t="n" s="112">
-        <v>0.38613861386138615</v>
+        <v>0.09900990099009901</v>
       </c>
       <c r="F49" t="n" s="113">
-        <v>0.2871287128712871</v>
+        <v>0.09900990099009901</v>
       </c>
       <c r="G49" t="n" s="114">
-        <v>0.09900990099009901</v>
+        <v>0.0297029702970297</v>
       </c>
       <c r="H49" t="n" s="115">
         <v>0.0</v>
@@ -5125,25 +5131,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="104">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" t="n" s="109">
-        <v>0.0594059405940594</v>
+        <v>0.7227722772277227</v>
       </c>
       <c r="C50" t="n" s="110">
-        <v>0.1485148514851485</v>
+        <v>0.0</v>
       </c>
       <c r="D50" t="n" s="111">
-        <v>0.12871287128712872</v>
+        <v>0.04950495049504951</v>
       </c>
       <c r="E50" t="n" s="112">
+        <v>0.04950495049504951</v>
+      </c>
+      <c r="F50" t="n" s="113">
+        <v>0.07920792079207921</v>
+      </c>
+      <c r="G50" t="n" s="114">
         <v>0.09900990099009901</v>
-      </c>
-      <c r="F50" t="n" s="113">
-        <v>0.06930693069306931</v>
-      </c>
-      <c r="G50" t="n" s="114">
-        <v>0.49504950495049505</v>
       </c>
       <c r="H50" t="n" s="115">
         <v>0.0</v>
@@ -5151,22 +5157,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="104">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" t="n" s="109">
-        <v>0.5544554455445545</v>
+        <v>0.0594059405940594</v>
       </c>
       <c r="C51" t="n" s="110">
-        <v>0.15841584158415842</v>
+        <v>0.9405940594059405</v>
       </c>
       <c r="D51" t="n" s="111">
-        <v>0.019801980198019802</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n" s="112">
-        <v>0.12871287128712872</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n" s="113">
-        <v>0.13861386138613863</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n" s="114">
         <v>0.0</v>
@@ -5177,25 +5183,25 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="104">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="n" s="109">
-        <v>0.27722772277227725</v>
+        <v>0.0594059405940594</v>
       </c>
       <c r="C52" t="n" s="110">
-        <v>0.2376237623762376</v>
+        <v>0.1485148514851485</v>
       </c>
       <c r="D52" t="n" s="111">
-        <v>0.039603960396039604</v>
+        <v>0.019801980198019802</v>
       </c>
       <c r="E52" t="n" s="112">
-        <v>0.31683168316831684</v>
+        <v>0.38613861386138615</v>
       </c>
       <c r="F52" t="n" s="113">
-        <v>0.12871287128712872</v>
+        <v>0.2871287128712871</v>
       </c>
       <c r="G52" t="n" s="114">
-        <v>0.0</v>
+        <v>0.09900990099009901</v>
       </c>
       <c r="H52" t="n" s="115">
         <v>0.0</v>
@@ -5203,25 +5209,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.27722772277227725</v>
+        <v>0.0594059405940594</v>
       </c>
       <c r="C53" t="n" s="110">
-        <v>0.19801980198019803</v>
+        <v>0.1485148514851485</v>
       </c>
       <c r="D53" t="n" s="111">
-        <v>0.2376237623762376</v>
+        <v>0.12871287128712872</v>
       </c>
       <c r="E53" t="n" s="112">
-        <v>0.15841584158415842</v>
+        <v>0.09900990099009901</v>
       </c>
       <c r="F53" t="n" s="113">
-        <v>0.12871287128712872</v>
+        <v>0.06930693069306931</v>
       </c>
       <c r="G53" t="n" s="114">
-        <v>0.0</v>
+        <v>0.49504950495049505</v>
       </c>
       <c r="H53" t="n" s="115">
         <v>0.0</v>
@@ -5229,27 +5235,105 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n" s="109">
-        <v>0.297029702970297</v>
+        <v>0.5544554455445545</v>
       </c>
       <c r="C54" t="n" s="110">
-        <v>0.1782178217821782</v>
+        <v>0.15841584158415842</v>
       </c>
       <c r="D54" t="n" s="111">
-        <v>0.27722772277227725</v>
+        <v>0.019801980198019802</v>
       </c>
       <c r="E54" t="n" s="112">
-        <v>0.15841584158415842</v>
+        <v>0.12871287128712872</v>
       </c>
       <c r="F54" t="n" s="113">
-        <v>0.0891089108910891</v>
+        <v>0.13861386138613863</v>
       </c>
       <c r="G54" t="n" s="114">
         <v>0.0</v>
       </c>
       <c r="H54" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="104">
+        <v>28</v>
+      </c>
+      <c r="B55" t="n" s="109">
+        <v>0.27722772277227725</v>
+      </c>
+      <c r="C55" t="n" s="110">
+        <v>0.2376237623762376</v>
+      </c>
+      <c r="D55" t="n" s="111">
+        <v>0.039603960396039604</v>
+      </c>
+      <c r="E55" t="n" s="112">
+        <v>0.31683168316831684</v>
+      </c>
+      <c r="F55" t="n" s="113">
+        <v>0.12871287128712872</v>
+      </c>
+      <c r="G55" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="104">
+        <v>29</v>
+      </c>
+      <c r="B56" t="n" s="109">
+        <v>0.27722772277227725</v>
+      </c>
+      <c r="C56" t="n" s="110">
+        <v>0.19801980198019803</v>
+      </c>
+      <c r="D56" t="n" s="111">
+        <v>0.2376237623762376</v>
+      </c>
+      <c r="E56" t="n" s="112">
+        <v>0.15841584158415842</v>
+      </c>
+      <c r="F56" t="n" s="113">
+        <v>0.12871287128712872</v>
+      </c>
+      <c r="G56" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="104">
+        <v>30</v>
+      </c>
+      <c r="B57" t="n" s="109">
+        <v>0.297029702970297</v>
+      </c>
+      <c r="C57" t="n" s="110">
+        <v>0.1782178217821782</v>
+      </c>
+      <c r="D57" t="n" s="111">
+        <v>0.27722772277227725</v>
+      </c>
+      <c r="E57" t="n" s="112">
+        <v>0.15841584158415842</v>
+      </c>
+      <c r="F57" t="n" s="113">
+        <v>0.0891089108910891</v>
+      </c>
+      <c r="G57" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n" s="115">
         <v>0.0</v>
       </c>
     </row>
@@ -5280,7 +5364,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="117">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -5329,31 +5413,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.8638676201361424</v>
+        <v>0.8724580535756139</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.8671350592634784</v>
+        <v>0.979682195242075</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.8794233643469721</v>
+        <v>0.9717729286842687</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.6200044827089651</v>
+        <v>0.9414267456193111</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>6.526439965702119</v>
+        <v>48.217915612164994</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.022590638528281744</v>
+        <v>0.00447000588594931</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.3069306930693068</v>
+        <v>0.7458745874587459</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>1.1061652160272057</v>
+        <v>1.2632836532461171</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.6274375265302203</v>
+        <v>0.9468544061244083</v>
       </c>
     </row>
     <row r="7">
@@ -5400,118 +5484,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.8076133354946777</v>
+        <v>0.9721506563611826</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.8153936863909236</v>
+        <v>0.9767750201267007</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.7596767292677629</v>
+        <v>0.9546043532358346</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.5955201333832054</v>
+        <v>0.9546043532358346</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>4.416932825589089</v>
+        <v>42.05708790515058</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.03348059619008774</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.010200567786882987</v>
-      </c>
+        <v>0.0050372498566055805</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.5561378483852165</v>
+        <v>0.9546043532358346</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.8309279667201868</v>
+        <v>0.6131083202511773</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.837849813457337</v>
+        <v>0.9727018139063679</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.8027860574040393</v>
+        <v>0.9468544061244083</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.6326735463385341</v>
+        <v>0.9468544061244084</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>5.167122106497806</v>
+        <v>35.63247061801202</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.030152386357317748</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.015513299487748102</v>
-      </c>
+        <v>0.012891052672723174</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.6987372046752242</v>
+        <v>0.9468544061244083</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.8177746574347553</v>
+        <v>0.6531635612801732</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.8162896268954037</v>
+        <v>0.9598618366782816</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.7705918310026414</v>
+        <v>0.9228214774976898</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.596955713271389</v>
+        <v>0.9228214774976897</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>4.443350765123346</v>
+        <v>23.913945164474114</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.03152168393318575</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.017725204985364902</v>
-      </c>
+        <v>0.015978044974882682</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.5561378483852165</v>
+        <v>0.9228214774976898</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.8483412715535124</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.8505754331129473</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.8171378061885729</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.654868537842732</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>5.6923399601076445</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.02577531658223906</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.014164450244180558</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.6987372046752242</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5520,283 +5574,226 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>101.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9580938125677415</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9758002717830059</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9555769015052977</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9464074279860498</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.27722772277227725</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.4498624652310552</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>101.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.8716681293526648</v>
+        <v>0.9849094684536884</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.8672955121114817</v>
+        <v>0.9784355521436884</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.83443999439087</v>
+        <v>0.9631344825826774</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.7564932779028911</v>
+        <v>0.9564167014569226</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.0396039603960396</v>
+        <v>0.900990099009901</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>1.348486500334415</v>
+        <v>1.584329198715024</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>101.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.8500864663364769</v>
+        <v>0.9905325401630773</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.8343416791375152</v>
+        <v>0.9866076730509783</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.7732471306563506</v>
+        <v>0.980329309045854</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.7068866594689532</v>
+        <v>0.9658159720960096</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>3.485148514851485</v>
+        <v>1.0594059405940595</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>1.4325771280188624</v>
+        <v>1.8156088905830894</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n" s="199">
-        <v>101.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.8502238086313557</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.8660222008301502</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.8254238213696921</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.7468633208229589</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.257425742574257</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>1.1458923627159285</v>
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="223">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>101.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.8085389086305688</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.8146554650131937</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.7387419181588313</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.6571636739396862</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>3.4455445544554455</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.3074803824513197</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
+      <c r="B25" t="n" s="224">
+        <v>0.7227722772277227</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.27722772277227725</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="A26" t="s" s="219">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="224">
+        <v>0.7227722772277227</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.039603960396039604</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.009900990099009901</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.09900990099009901</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.09900990099009901</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.0297029702970297</v>
+      </c>
+      <c r="H26" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="224">
-        <v>0.06930693069306931</v>
+        <v>0.7227722772277227</v>
       </c>
       <c r="C27" t="n" s="225">
-        <v>0.1188118811881188</v>
+        <v>0.0</v>
       </c>
       <c r="D27" t="n" s="226">
-        <v>0.0297029702970297</v>
+        <v>0.04950495049504951</v>
       </c>
       <c r="E27" t="n" s="227">
-        <v>0.3465346534653465</v>
+        <v>0.04950495049504951</v>
       </c>
       <c r="F27" t="n" s="228">
-        <v>0.3564356435643564</v>
+        <v>0.07920792079207921</v>
       </c>
       <c r="G27" t="n" s="229">
-        <v>0.07920792079207921</v>
+        <v>0.09900990099009901</v>
       </c>
       <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.06930693069306931</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.019801980198019802</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.09900990099009901</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.297029702970297</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.19801980198019803</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.31683168316831684</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.039603960396039604</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.06930693069306931</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.0297029702970297</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.39603960396039606</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.38613861386138615</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.07920792079207921</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.039603960396039604</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.019801980198019802</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.10891089108910891</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.43564356435643564</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.07920792079207921</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.31683168316831684</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5827,7 +5824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="232">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5876,31 +5873,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="261">
-        <v>0.7983851703215326</v>
+        <v>0.6715197706989773</v>
       </c>
       <c r="B6" t="n" s="262">
-        <v>0.8148455119091045</v>
+        <v>0.8047070079691829</v>
       </c>
       <c r="C6" t="n" s="263">
-        <v>0.6875437085182858</v>
+        <v>0.7461413221266524</v>
       </c>
       <c r="D6" t="n" s="264">
-        <v>0.6875437085182856</v>
+        <v>0.5786819493310212</v>
       </c>
       <c r="E6" t="n" s="265">
-        <v>4.400895275674244</v>
+        <v>4.120511440790464</v>
       </c>
       <c r="F6" t="n" s="266">
-        <v>0.03767340296254724</v>
+        <v>0.028165532974101067</v>
       </c>
       <c r="G6" t="n" s="267">
-        <v>3.222772277227723</v>
+        <v>2.462046204620462</v>
       </c>
       <c r="H6" t="n" s="268">
-        <v>1.4395750197970796</v>
+        <v>1.0066118053811377</v>
       </c>
       <c r="I6" t="n" s="269">
-        <v>0.6875437085182857</v>
+        <v>0.555246508368676</v>
       </c>
     </row>
     <row r="7">
@@ -5950,24 +5947,26 @@
         <v>24</v>
       </c>
       <c r="B11" t="n" s="288">
-        <v>0.6875437085182856</v>
+        <v>0.7983851703215326</v>
       </c>
       <c r="C11" t="n" s="289">
-        <v>0.6875437085182856</v>
+        <v>0.8148455119091045</v>
       </c>
       <c r="D11" t="n" s="290">
-        <v>0.4727163511230775</v>
+        <v>0.6875437085182858</v>
       </c>
       <c r="E11" t="n" s="291">
         <v>0.6875437085182856</v>
       </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.6875437085182856</v>
-      </c>
+      <c r="F11" t="n" s="292">
+        <v>4.400895275674244</v>
+      </c>
+      <c r="G11" t="n" s="293">
+        <v>0.03767340296254724</v>
+      </c>
+      <c r="H11" s="294"/>
       <c r="I11" t="n" s="295">
-        <v>0.6875437085182856</v>
+        <v>0.6875437085182857</v>
       </c>
     </row>
     <row r="12">
@@ -5975,25 +5974,53 @@
         <v>25</v>
       </c>
       <c r="B12" t="n" s="288">
-        <v>0.4727163511230775</v>
+        <v>0.23026171101825366</v>
       </c>
       <c r="C12" t="n" s="289">
-        <v>0.6875437085182856</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.4727163511230775</v>
-      </c>
+        <v>0.6606445953808084</v>
+      </c>
+      <c r="D12" t="n" s="290">
+        <v>0.49325563110610227</v>
+      </c>
+      <c r="E12" t="n" s="291">
+        <v>0.49325563110610227</v>
+      </c>
+      <c r="F12" t="n" s="292">
+        <v>1.94676314680225</v>
+      </c>
+      <c r="G12" t="n" s="293">
+        <v>0.03545047673991658</v>
+      </c>
+      <c r="H12" s="294"/>
       <c r="I12" t="n" s="295">
-        <v>0.6875437085182856</v>
+        <v>0.49325563110610215</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="283">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n" s="288">
+        <v>0.3168109100445844</v>
+      </c>
+      <c r="C13" t="n" s="289">
+        <v>0.7140302265665694</v>
+      </c>
+      <c r="D13" t="n" s="290">
+        <v>0.555246508368676</v>
+      </c>
+      <c r="E13" t="n" s="291">
+        <v>0.555246508368676</v>
+      </c>
+      <c r="F13" t="n" s="292">
+        <v>2.496873071561828</v>
+      </c>
+      <c r="G13" t="n" s="293">
+        <v>0.03902863548123846</v>
+      </c>
+      <c r="H13" s="294"/>
+      <c r="I13" t="n" s="295">
+        <v>0.555246508368676</v>
       </c>
     </row>
     <row r="14">
@@ -6002,174 +6029,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+      <c r="A16" t="s" s="299">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="313">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="C17" t="s" s="313">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="D17" t="s" s="313">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="E17" t="s" s="313">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="F17" t="s" s="313">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="313">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="313">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n" s="314">
-        <v>101.0</v>
-      </c>
-      <c r="C17" t="n" s="315">
-        <v>0.8949154437151873</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.918570549418575</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.7616626745618309</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.6875437085182855</v>
-      </c>
-      <c r="G17" t="n" s="319">
-        <v>2.99009900990099</v>
-      </c>
-      <c r="H17" t="n" s="320">
-        <v>1.360110653623083</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="309">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="n" s="314">
         <v>101.0</v>
       </c>
       <c r="C18" t="n" s="315">
-        <v>0.939324450140263</v>
+        <v>0.6177442177513465</v>
       </c>
       <c r="D18" t="n" s="316">
-        <v>0.918570549418575</v>
+        <v>0.8052191428510087</v>
       </c>
       <c r="E18" t="n" s="317">
-        <v>0.7616626745618308</v>
+        <v>0.6281528054552018</v>
       </c>
       <c r="F18" t="n" s="318">
-        <v>0.6875437085182855</v>
+        <v>0.5654182558628381</v>
       </c>
       <c r="G18" t="n" s="319">
+        <v>0.9405940594059405</v>
+      </c>
+      <c r="H18" t="n" s="320">
+        <v>0.23756187312857346</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="309">
+        <v>25</v>
+      </c>
+      <c r="B19" t="n" s="314">
+        <v>101.0</v>
+      </c>
+      <c r="C19" t="n" s="315">
+        <v>0.8969035932564683</v>
+      </c>
+      <c r="D19" t="n" s="316">
+        <v>0.8815893238458502</v>
+      </c>
+      <c r="E19" t="n" s="317">
+        <v>0.8087423440443299</v>
+      </c>
+      <c r="F19" t="n" s="318">
+        <v>0.7105079256747479</v>
+      </c>
+      <c r="G19" t="n" s="319">
+        <v>2.99009900990099</v>
+      </c>
+      <c r="H19" t="n" s="320">
+        <v>1.360110653623083</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="309">
+        <v>26</v>
+      </c>
+      <c r="B20" t="n" s="314">
+        <v>101.0</v>
+      </c>
+      <c r="C20" t="n" s="315">
+        <v>0.9343670666242303</v>
+      </c>
+      <c r="D20" t="n" s="316">
+        <v>0.8572221337453069</v>
+      </c>
+      <c r="E20" t="n" s="317">
+        <v>0.7606250563161095</v>
+      </c>
+      <c r="F20" t="n" s="318">
+        <v>0.6991930654907087</v>
+      </c>
+      <c r="G20" t="n" s="319">
         <v>3.4554455445544554</v>
       </c>
-      <c r="H18" t="n" s="320">
+      <c r="H20" t="n" s="320">
         <v>1.769320505025856</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
+    <row r="23">
+      <c r="A23" t="s" s="324">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="338">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="338">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="338">
+      <c r="C24" t="s" s="338">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="338">
+      <c r="D24" t="s" s="338">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="338">
+      <c r="E24" t="s" s="338">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="338">
+      <c r="F24" t="s" s="338">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="338">
+      <c r="G24" t="s" s="338">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
+      <c r="H24" t="s" s="338">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="334">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="339">
+      <c r="B25" t="n" s="339">
         <v>0.0594059405940594</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C25" t="n" s="340">
+        <v>0.9405940594059405</v>
+      </c>
+      <c r="D25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="334">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n" s="339">
+        <v>0.0594059405940594</v>
+      </c>
+      <c r="C26" t="n" s="340">
         <v>0.1485148514851485</v>
       </c>
-      <c r="D23" t="n" s="341">
+      <c r="D26" t="n" s="341">
         <v>0.019801980198019802</v>
       </c>
-      <c r="E23" t="n" s="342">
+      <c r="E26" t="n" s="342">
         <v>0.38613861386138615</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="343">
         <v>0.2871287128712871</v>
       </c>
-      <c r="G23" t="n" s="344">
+      <c r="G26" t="n" s="344">
         <v>0.09900990099009901</v>
       </c>
-      <c r="H23" t="n" s="345">
+      <c r="H26" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
-        <v>25</v>
-      </c>
-      <c r="B24" t="n" s="339">
+    <row r="27">
+      <c r="A27" t="s" s="334">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n" s="339">
         <v>0.0594059405940594</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="340">
         <v>0.1485148514851485</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="341">
         <v>0.12871287128712872</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="342">
         <v>0.09900990099009901</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="343">
         <v>0.06930693069306931</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="344">
         <v>0.49504950495049505</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
@@ -6200,7 +6284,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="347">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -6249,31 +6333,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="376">
-        <v>0.9005603513554445</v>
+        <v>0.7363021593790826</v>
       </c>
       <c r="B6" t="n" s="377">
-        <v>0.9011630770973862</v>
+        <v>0.8628035476476068</v>
       </c>
       <c r="C6" t="n" s="378">
-        <v>0.8201062944963067</v>
+        <v>0.8138225431720736</v>
       </c>
       <c r="D6" t="n" s="379">
-        <v>0.8201062944963065</v>
+        <v>0.6770310352971366</v>
       </c>
       <c r="E6" t="n" s="380">
-        <v>9.117676376725345</v>
+        <v>6.288818208152129</v>
       </c>
       <c r="F6" t="n" s="381">
-        <v>0.019715969633202567</v>
+        <v>0.021221997009007974</v>
       </c>
       <c r="G6" t="n" s="382">
-        <v>1.613861386138614</v>
+        <v>2.485148514851485</v>
       </c>
       <c r="H6" t="n" s="383">
-        <v>1.2784388685400876</v>
+        <v>0.9267922606439045</v>
       </c>
       <c r="I6" t="n" s="384">
-        <v>0.8201062944963066</v>
+        <v>0.6671892753848783</v>
       </c>
     </row>
     <row r="7">
@@ -6320,53 +6404,83 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="398">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n" s="403">
-        <v>0.8201062944963066</v>
+        <v>0.8534475173768952</v>
       </c>
       <c r="C11" t="n" s="404">
-        <v>0.8201062944963066</v>
+        <v>0.8543422685791375</v>
       </c>
       <c r="D11" t="n" s="405">
-        <v>0.6725743342724632</v>
+        <v>0.7457220818643358</v>
       </c>
       <c r="E11" t="n" s="406">
-        <v>0.8201062944963066</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.8201062944963066</v>
-      </c>
+        <v>0.7457220818643358</v>
+      </c>
+      <c r="F11" t="n" s="407">
+        <v>5.8654096850554875</v>
+      </c>
+      <c r="G11" t="n" s="408">
+        <v>0.02904541562018635</v>
+      </c>
+      <c r="H11" s="409"/>
       <c r="I11" t="n" s="410">
-        <v>0.8201062944963066</v>
+        <v>0.7457220818643358</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="398">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n" s="403">
-        <v>0.6725743342724632</v>
+        <v>0.37455346963593517</v>
       </c>
       <c r="C12" t="n" s="404">
-        <v>0.8201062944963066</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.6725743342724632</v>
-      </c>
+        <v>0.8003761603263129</v>
+      </c>
+      <c r="D12" t="n" s="405">
+        <v>0.6671892753848783</v>
+      </c>
+      <c r="E12" t="n" s="406">
+        <v>0.6671892753848783</v>
+      </c>
+      <c r="F12" t="n" s="407">
+        <v>4.009421728560268</v>
+      </c>
+      <c r="G12" t="n" s="408">
+        <v>0.03290715107343997</v>
+      </c>
+      <c r="H12" s="409"/>
       <c r="I12" t="n" s="410">
-        <v>0.8201062944963066</v>
+        <v>0.6671892753848783</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="398">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n" s="403">
+        <v>0.3685790240974185</v>
+      </c>
+      <c r="C13" t="n" s="404">
+        <v>0.7640448907063837</v>
+      </c>
+      <c r="D13" t="n" s="405">
+        <v>0.6181817486421957</v>
+      </c>
+      <c r="E13" t="n" s="406">
+        <v>0.6181817486421957</v>
+      </c>
+      <c r="F13" t="n" s="407">
+        <v>3.238094284093788</v>
+      </c>
+      <c r="G13" t="n" s="408">
+        <v>0.03705571898304703</v>
+      </c>
+      <c r="H13" s="409"/>
+      <c r="I13" t="n" s="410">
+        <v>0.6181817486421955</v>
       </c>
     </row>
     <row r="14">
@@ -6375,165 +6489,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="A16" t="s" s="414">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="428">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="C17" t="s" s="428">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="D17" t="s" s="428">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="E17" t="s" s="428">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="F17" t="s" s="428">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="428">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H17" t="s" s="428">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
-        <v>101.0</v>
-      </c>
-      <c r="C17" t="n" s="430">
-        <v>0.9562645467860382</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.9539670577374006</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.8639098994596514</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.8201062944963066</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>1.6633663366336633</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.3731513224897849</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="424">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B18" t="n" s="429">
         <v>101.0</v>
       </c>
       <c r="C18" t="n" s="430">
-        <v>0.9516121778948324</v>
+        <v>0.7353866293031274</v>
       </c>
       <c r="D18" t="n" s="431">
-        <v>0.9539670577374006</v>
+        <v>0.8599775904166801</v>
       </c>
       <c r="E18" t="n" s="432">
-        <v>0.8639098994596512</v>
+        <v>0.7355160220206388</v>
       </c>
       <c r="F18" t="n" s="433">
-        <v>0.8201062944963067</v>
+        <v>0.6886482135085928</v>
       </c>
       <c r="G18" t="n" s="434">
-        <v>1.5643564356435644</v>
+        <v>0.9306930693069307</v>
       </c>
       <c r="H18" t="n" s="435">
-        <v>1.3070259491238758</v>
+        <v>0.25524207108446123</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="424">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n" s="429">
+        <v>101.0</v>
+      </c>
+      <c r="C19" t="n" s="430">
+        <v>0.9259812933386639</v>
+      </c>
+      <c r="D19" t="n" s="431">
+        <v>0.8895292268795668</v>
+      </c>
+      <c r="E19" t="n" s="432">
+        <v>0.811822921552334</v>
+      </c>
+      <c r="F19" t="n" s="433">
+        <v>0.7596083665591075</v>
+      </c>
+      <c r="G19" t="n" s="434">
+        <v>3.0396039603960396</v>
+      </c>
+      <c r="H19" t="n" s="435">
+        <v>1.348486500334415</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="424">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n" s="429">
+        <v>101.0</v>
+      </c>
+      <c r="C20" t="n" s="430">
+        <v>0.938170710466261</v>
+      </c>
+      <c r="D20" t="n" s="431">
+        <v>0.9079705978068086</v>
+      </c>
+      <c r="E20" t="n" s="432">
+        <v>0.8500275997882726</v>
+      </c>
+      <c r="F20" t="n" s="433">
+        <v>0.7738287000704107</v>
+      </c>
+      <c r="G20" t="n" s="434">
+        <v>3.485148514851485</v>
+      </c>
+      <c r="H20" t="n" s="435">
+        <v>1.4325771280188624</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="439">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="453">
+    <row r="23">
+      <c r="A23" t="s" s="439">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="453">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="453">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C24" t="s" s="453">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
+      <c r="D24" t="s" s="453">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="453">
+      <c r="E24" t="s" s="453">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="F24" t="s" s="453">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="453">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
-        <v>0.27722772277227725</v>
-      </c>
-      <c r="C23" t="n" s="455">
+      <c r="H24" t="s" s="453">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="449">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n" s="454">
+        <v>0.06930693069306931</v>
+      </c>
+      <c r="C25" t="n" s="455">
+        <v>0.9306930693069307</v>
+      </c>
+      <c r="D25" t="n" s="456">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="458">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="459">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="449">
+        <v>19</v>
+      </c>
+      <c r="B26" t="n" s="454">
+        <v>0.06930693069306931</v>
+      </c>
+      <c r="C26" t="n" s="455">
+        <v>0.1188118811881188</v>
+      </c>
+      <c r="D26" t="n" s="456">
+        <v>0.0297029702970297</v>
+      </c>
+      <c r="E26" t="n" s="457">
+        <v>0.3465346534653465</v>
+      </c>
+      <c r="F26" t="n" s="458">
+        <v>0.3564356435643564</v>
+      </c>
+      <c r="G26" t="n" s="459">
+        <v>0.07920792079207921</v>
+      </c>
+      <c r="H26" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="449">
+        <v>20</v>
+      </c>
+      <c r="B27" t="n" s="454">
+        <v>0.06930693069306931</v>
+      </c>
+      <c r="C27" t="n" s="455">
+        <v>0.019801980198019802</v>
+      </c>
+      <c r="D27" t="n" s="456">
+        <v>0.09900990099009901</v>
+      </c>
+      <c r="E27" t="n" s="457">
+        <v>0.297029702970297</v>
+      </c>
+      <c r="F27" t="n" s="458">
         <v>0.19801980198019803</v>
       </c>
-      <c r="D23" t="n" s="456">
-        <v>0.2376237623762376</v>
-      </c>
-      <c r="E23" t="n" s="457">
-        <v>0.15841584158415842</v>
-      </c>
-      <c r="F23" t="n" s="458">
-        <v>0.12871287128712872</v>
-      </c>
-      <c r="G23" t="n" s="459">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
-        <v>0.297029702970297</v>
-      </c>
-      <c r="C24" t="n" s="455">
-        <v>0.1782178217821782</v>
-      </c>
-      <c r="D24" t="n" s="456">
-        <v>0.27722772277227725</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.15841584158415842</v>
-      </c>
-      <c r="F24" t="n" s="458">
-        <v>0.0891089108910891</v>
-      </c>
-      <c r="G24" t="n" s="459">
+      <c r="G27" t="n" s="459">
+        <v>0.31683168316831684</v>
+      </c>
+      <c r="H27" t="n" s="460">
         <v>0.0</v>
       </c>
     </row>
@@ -6563,8 +6743,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="461">
-        <v>47</v>
+      <c r="A1" t="s" s="462">
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -6578,66 +6758,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="475">
+      <c r="A4" t="s" s="476">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="489">
+      <c r="A5" t="s" s="490">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="489">
+      <c r="B5" t="s" s="490">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="489">
+      <c r="C5" t="s" s="490">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="489">
+      <c r="D5" t="s" s="490">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="489">
+      <c r="E5" t="s" s="490">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="489">
+      <c r="F5" t="s" s="490">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="489">
+      <c r="G5" t="s" s="490">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="489">
+      <c r="H5" t="s" s="490">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="489">
+      <c r="I5" t="s" s="490">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="490">
-        <v>0.9721506563611826</v>
-      </c>
-      <c r="B6" t="n" s="491">
-        <v>0.9767750201267007</v>
-      </c>
-      <c r="C6" t="n" s="492">
-        <v>0.9546043532358346</v>
-      </c>
-      <c r="D6" t="n" s="493">
-        <v>0.9546043532358346</v>
-      </c>
-      <c r="E6" t="n" s="494">
-        <v>42.05708790515058</v>
-      </c>
-      <c r="F6" t="n" s="495">
-        <v>0.0050372498566055805</v>
-      </c>
-      <c r="G6" t="n" s="496">
-        <v>0.9801980198019802</v>
-      </c>
-      <c r="H6" t="n" s="497">
-        <v>1.6806558125910374</v>
-      </c>
-      <c r="I6" t="n" s="498">
-        <v>0.9546043532358346</v>
+      <c r="A6" t="n" s="491">
+        <v>0.5350766747376914</v>
+      </c>
+      <c r="B6" t="n" s="492">
+        <v>0.5354220760127069</v>
+      </c>
+      <c r="C6" t="n" s="493">
+        <v>0.3655811461059221</v>
+      </c>
+      <c r="D6" t="n" s="494">
+        <v>0.3655811461059222</v>
+      </c>
+      <c r="E6" t="n" s="495">
+        <v>1.152491430107969</v>
+      </c>
+      <c r="F6" t="n" s="496">
+        <v>0.09242916012317741</v>
+      </c>
+      <c r="G6" t="n" s="497">
+        <v>1.4603960396039604</v>
+      </c>
+      <c r="H6" t="n" s="498">
+        <v>1.2383116899973763</v>
+      </c>
+      <c r="I6" t="n" s="499">
+        <v>0.3655811461059222</v>
       </c>
     </row>
     <row r="7">
@@ -6651,81 +6831,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="502">
+      <c r="A9" t="s" s="503">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="516">
+      <c r="B10" t="s" s="517">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="516">
+      <c r="C10" t="s" s="517">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="516">
+      <c r="D10" t="s" s="517">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="516">
+      <c r="E10" t="s" s="517">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="516">
+      <c r="F10" t="s" s="517">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="516">
+      <c r="G10" t="s" s="517">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="516">
+      <c r="H10" t="s" s="517">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="516">
+      <c r="I10" t="s" s="517">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="512">
-        <v>22</v>
-      </c>
-      <c r="B11" t="n" s="517">
-        <v>0.9546043532358347</v>
-      </c>
-      <c r="C11" t="n" s="518">
-        <v>0.9546043532358347</v>
-      </c>
-      <c r="D11" t="n" s="519">
-        <v>0.911269471216806</v>
-      </c>
-      <c r="E11" t="n" s="520">
-        <v>0.9546043532358347</v>
-      </c>
-      <c r="F11" s="521"/>
-      <c r="G11" s="522"/>
-      <c r="H11" t="n" s="523">
-        <v>0.9546043532358347</v>
-      </c>
-      <c r="I11" t="n" s="524">
-        <v>0.9546043532358347</v>
+      <c r="A11" t="s" s="513">
+        <v>27</v>
+      </c>
+      <c r="B11" t="n" s="518">
+        <v>0.36558114610592224</v>
+      </c>
+      <c r="C11" t="n" s="519">
+        <v>0.36558114610592224</v>
+      </c>
+      <c r="D11" t="n" s="520">
+        <v>0.13364957438811953</v>
+      </c>
+      <c r="E11" t="n" s="521">
+        <v>0.36558114610592224</v>
+      </c>
+      <c r="F11" s="522"/>
+      <c r="G11" s="523"/>
+      <c r="H11" t="n" s="524">
+        <v>0.36558114610592224</v>
+      </c>
+      <c r="I11" t="n" s="525">
+        <v>0.36558114610592224</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="512">
-        <v>23</v>
-      </c>
-      <c r="B12" t="n" s="517">
-        <v>0.911269471216806</v>
-      </c>
-      <c r="C12" t="n" s="518">
-        <v>0.9546043532358347</v>
-      </c>
-      <c r="D12" s="519"/>
-      <c r="E12" s="520"/>
-      <c r="F12" s="521"/>
-      <c r="G12" s="522"/>
-      <c r="H12" t="n" s="523">
-        <v>0.911269471216806</v>
-      </c>
-      <c r="I12" t="n" s="524">
-        <v>0.9546043532358347</v>
+      <c r="A12" t="s" s="513">
+        <v>28</v>
+      </c>
+      <c r="B12" t="n" s="518">
+        <v>0.13364957438811953</v>
+      </c>
+      <c r="C12" t="n" s="519">
+        <v>0.36558114610592224</v>
+      </c>
+      <c r="D12" s="520"/>
+      <c r="E12" s="521"/>
+      <c r="F12" s="522"/>
+      <c r="G12" s="523"/>
+      <c r="H12" t="n" s="524">
+        <v>0.13364957438811953</v>
+      </c>
+      <c r="I12" t="n" s="525">
+        <v>0.36558114610592224</v>
       </c>
     </row>
     <row r="13">
@@ -6739,84 +6919,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="528">
-        <v>30</v>
+      <c r="A15" t="s" s="529">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="542">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s" s="542">
+      <c r="B16" t="s" s="543">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="542">
+      <c r="C16" t="s" s="543">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="542">
+      <c r="D16" t="s" s="543">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="542">
+      <c r="E16" t="s" s="543">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="542">
+      <c r="F16" t="s" s="543">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s" s="543">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="542">
+      <c r="H16" t="s" s="543">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="538">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="543">
+      <c r="A17" t="s" s="539">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="544">
         <v>101.0</v>
       </c>
-      <c r="C17" t="n" s="544">
-        <v>0.9869710753937082</v>
-      </c>
-      <c r="D17" t="n" s="545">
-        <v>0.9885859480176306</v>
-      </c>
-      <c r="E17" t="n" s="546">
-        <v>0.9658865938744156</v>
-      </c>
-      <c r="F17" t="n" s="547">
-        <v>0.9546043532358344</v>
-      </c>
-      <c r="G17" t="n" s="548">
-        <v>0.900990099009901</v>
-      </c>
-      <c r="H17" t="n" s="549">
-        <v>1.584329198715024</v>
+      <c r="C17" t="n" s="545">
+        <v>0.834283627484069</v>
+      </c>
+      <c r="D17" t="n" s="546">
+        <v>0.8263114261904897</v>
+      </c>
+      <c r="E17" t="n" s="547">
+        <v>0.4996152121853586</v>
+      </c>
+      <c r="F17" t="n" s="548">
+        <v>0.3655811461059223</v>
+      </c>
+      <c r="G17" t="n" s="549">
+        <v>1.1386138613861385</v>
+      </c>
+      <c r="H17" t="n" s="550">
+        <v>1.5299000161467875</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="538">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="543">
+      <c r="A18" t="s" s="539">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="544">
         <v>101.0</v>
       </c>
-      <c r="C18" t="n" s="544">
-        <v>0.9900945856083254</v>
-      </c>
-      <c r="D18" t="n" s="545">
-        <v>0.9885859480176306</v>
-      </c>
-      <c r="E18" t="n" s="546">
-        <v>0.9658865938744157</v>
-      </c>
-      <c r="F18" t="n" s="547">
-        <v>0.9546043532358346</v>
-      </c>
-      <c r="G18" t="n" s="548">
-        <v>1.0594059405940595</v>
-      </c>
-      <c r="H18" t="n" s="549">
-        <v>1.8156088905830894</v>
+      <c r="C18" t="n" s="545">
+        <v>0.8181701264083999</v>
+      </c>
+      <c r="D18" t="n" s="546">
+        <v>0.8263114261904897</v>
+      </c>
+      <c r="E18" t="n" s="547">
+        <v>0.49961521218535865</v>
+      </c>
+      <c r="F18" t="n" s="548">
+        <v>0.3655811461059223</v>
+      </c>
+      <c r="G18" t="n" s="549">
+        <v>1.7821782178217822</v>
+      </c>
+      <c r="H18" t="n" s="550">
+        <v>1.4669966625458941</v>
       </c>
     </row>
     <row r="19">
@@ -6830,83 +7010,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="553">
-        <v>36</v>
+      <c r="A21" t="s" s="554">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="567">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="567">
+      <c r="B22" t="s" s="568">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="567">
+      <c r="C22" t="s" s="568">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="567">
+      <c r="D22" t="s" s="568">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="567">
+      <c r="E22" t="s" s="568">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="567">
+      <c r="F22" t="s" s="568">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="567">
-        <v>43</v>
+      <c r="G22" t="s" s="568">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="563">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n" s="568">
-        <v>0.7227722772277227</v>
-      </c>
-      <c r="C23" t="n" s="569">
+      <c r="A23" t="s" s="564">
+        <v>27</v>
+      </c>
+      <c r="B23" t="n" s="569">
+        <v>0.5544554455445545</v>
+      </c>
+      <c r="C23" t="n" s="570">
+        <v>0.15841584158415842</v>
+      </c>
+      <c r="D23" t="n" s="571">
+        <v>0.019801980198019802</v>
+      </c>
+      <c r="E23" t="n" s="572">
+        <v>0.12871287128712872</v>
+      </c>
+      <c r="F23" t="n" s="573">
+        <v>0.13861386138613863</v>
+      </c>
+      <c r="G23" t="n" s="574">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="564">
+        <v>28</v>
+      </c>
+      <c r="B24" t="n" s="569">
+        <v>0.27722772277227725</v>
+      </c>
+      <c r="C24" t="n" s="570">
+        <v>0.2376237623762376</v>
+      </c>
+      <c r="D24" t="n" s="571">
         <v>0.039603960396039604</v>
       </c>
-      <c r="D23" t="n" s="570">
-        <v>0.009900990099009901</v>
-      </c>
-      <c r="E23" t="n" s="571">
-        <v>0.09900990099009901</v>
-      </c>
-      <c r="F23" t="n" s="572">
-        <v>0.09900990099009901</v>
-      </c>
-      <c r="G23" t="n" s="573">
-        <v>0.0297029702970297</v>
-      </c>
-      <c r="H23" t="n" s="574">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="563">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n" s="568">
-        <v>0.7227722772277227</v>
-      </c>
-      <c r="C24" t="n" s="569">
-        <v>0.0</v>
-      </c>
-      <c r="D24" t="n" s="570">
-        <v>0.04950495049504951</v>
-      </c>
-      <c r="E24" t="n" s="571">
-        <v>0.04950495049504951</v>
-      </c>
-      <c r="F24" t="n" s="572">
-        <v>0.07920792079207921</v>
-      </c>
-      <c r="G24" t="n" s="573">
-        <v>0.09900990099009901</v>
-      </c>
-      <c r="H24" t="n" s="574">
+      <c r="E24" t="n" s="572">
+        <v>0.31683168316831684</v>
+      </c>
+      <c r="F24" t="n" s="573">
+        <v>0.12871287128712872</v>
+      </c>
+      <c r="G24" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
@@ -6937,7 +7108,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="576">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -6986,31 +7157,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="605">
-        <v>0.5350766747376914</v>
+        <v>0.9005603513554445</v>
       </c>
       <c r="B6" t="n" s="606">
-        <v>0.5354220760127069</v>
+        <v>0.9011630770973862</v>
       </c>
       <c r="C6" t="n" s="607">
-        <v>0.3655811461059221</v>
+        <v>0.8201062944963067</v>
       </c>
       <c r="D6" t="n" s="608">
-        <v>0.3655811461059222</v>
+        <v>0.8201062944963065</v>
       </c>
       <c r="E6" t="n" s="609">
-        <v>1.152491430107969</v>
+        <v>9.117676376725345</v>
       </c>
       <c r="F6" t="n" s="610">
-        <v>0.09242916012317741</v>
+        <v>0.019715969633202567</v>
       </c>
       <c r="G6" t="n" s="611">
-        <v>1.4603960396039604</v>
+        <v>1.613861386138614</v>
       </c>
       <c r="H6" t="n" s="612">
-        <v>1.2383116899973763</v>
+        <v>1.2784388685400876</v>
       </c>
       <c r="I6" t="n" s="613">
-        <v>0.3655811461059222</v>
+        <v>0.8201062944963066</v>
       </c>
     </row>
     <row r="7">
@@ -7057,48 +7228,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="627">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n" s="632">
-        <v>0.36558114610592224</v>
+        <v>0.8201062944963066</v>
       </c>
       <c r="C11" t="n" s="633">
-        <v>0.36558114610592224</v>
+        <v>0.8201062944963066</v>
       </c>
       <c r="D11" t="n" s="634">
-        <v>0.13364957438811953</v>
+        <v>0.6725743342724632</v>
       </c>
       <c r="E11" t="n" s="635">
-        <v>0.36558114610592224</v>
+        <v>0.8201062944963066</v>
       </c>
       <c r="F11" s="636"/>
       <c r="G11" s="637"/>
       <c r="H11" t="n" s="638">
-        <v>0.36558114610592224</v>
+        <v>0.8201062944963066</v>
       </c>
       <c r="I11" t="n" s="639">
-        <v>0.36558114610592224</v>
+        <v>0.8201062944963066</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="627">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n" s="632">
-        <v>0.13364957438811953</v>
+        <v>0.6725743342724632</v>
       </c>
       <c r="C12" t="n" s="633">
-        <v>0.36558114610592224</v>
+        <v>0.8201062944963066</v>
       </c>
       <c r="D12" s="634"/>
       <c r="E12" s="635"/>
       <c r="F12" s="636"/>
       <c r="G12" s="637"/>
       <c r="H12" t="n" s="638">
-        <v>0.13364957438811953</v>
+        <v>0.6725743342724632</v>
       </c>
       <c r="I12" t="n" s="639">
-        <v>0.36558114610592224</v>
+        <v>0.8201062944963066</v>
       </c>
     </row>
     <row r="13">
@@ -7113,25 +7284,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="643">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="657">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="657">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="657">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="657">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="657">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="657">
         <v>9</v>
@@ -7142,54 +7313,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="653">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n" s="658">
         <v>101.0</v>
       </c>
       <c r="C17" t="n" s="659">
-        <v>0.834283627484069</v>
+        <v>0.9562645467860382</v>
       </c>
       <c r="D17" t="n" s="660">
-        <v>0.8263114261904897</v>
+        <v>0.9539670577374006</v>
       </c>
       <c r="E17" t="n" s="661">
-        <v>0.4996152121853586</v>
+        <v>0.8639098994596514</v>
       </c>
       <c r="F17" t="n" s="662">
-        <v>0.3655811461059223</v>
+        <v>0.8201062944963066</v>
       </c>
       <c r="G17" t="n" s="663">
-        <v>1.1386138613861385</v>
+        <v>1.6633663366336633</v>
       </c>
       <c r="H17" t="n" s="664">
-        <v>1.5299000161467875</v>
+        <v>1.3731513224897849</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="653">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n" s="658">
         <v>101.0</v>
       </c>
       <c r="C18" t="n" s="659">
-        <v>0.8181701264083999</v>
+        <v>0.9516121778948324</v>
       </c>
       <c r="D18" t="n" s="660">
-        <v>0.8263114261904897</v>
+        <v>0.9539670577374006</v>
       </c>
       <c r="E18" t="n" s="661">
-        <v>0.49961521218535865</v>
+        <v>0.8639098994596512</v>
       </c>
       <c r="F18" t="n" s="662">
-        <v>0.3655811461059223</v>
+        <v>0.8201062944963067</v>
       </c>
       <c r="G18" t="n" s="663">
-        <v>1.7821782178217822</v>
+        <v>1.5643564356435644</v>
       </c>
       <c r="H18" t="n" s="664">
-        <v>1.4669966625458941</v>
+        <v>1.3070259491238758</v>
       </c>
     </row>
     <row r="19">
@@ -7204,48 +7375,48 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="668">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="682">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="682">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="682">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s" s="682">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="682">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="682">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="678">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" t="n" s="683">
-        <v>0.5544554455445545</v>
+        <v>0.27722772277227725</v>
       </c>
       <c r="C23" t="n" s="684">
+        <v>0.19801980198019803</v>
+      </c>
+      <c r="D23" t="n" s="685">
+        <v>0.2376237623762376</v>
+      </c>
+      <c r="E23" t="n" s="686">
         <v>0.15841584158415842</v>
       </c>
-      <c r="D23" t="n" s="685">
-        <v>0.019801980198019802</v>
-      </c>
-      <c r="E23" t="n" s="686">
+      <c r="F23" t="n" s="687">
         <v>0.12871287128712872</v>
-      </c>
-      <c r="F23" t="n" s="687">
-        <v>0.13861386138613863</v>
       </c>
       <c r="G23" t="n" s="688">
         <v>0.0</v>
@@ -7253,22 +7424,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="678">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n" s="683">
+        <v>0.297029702970297</v>
+      </c>
+      <c r="C24" t="n" s="684">
+        <v>0.1782178217821782</v>
+      </c>
+      <c r="D24" t="n" s="685">
         <v>0.27722772277227725</v>
       </c>
-      <c r="C24" t="n" s="684">
-        <v>0.2376237623762376</v>
-      </c>
-      <c r="D24" t="n" s="685">
-        <v>0.039603960396039604</v>
-      </c>
       <c r="E24" t="n" s="686">
-        <v>0.31683168316831684</v>
+        <v>0.15841584158415842</v>
       </c>
       <c r="F24" t="n" s="687">
-        <v>0.12871287128712872</v>
+        <v>0.0891089108910891</v>
       </c>
       <c r="G24" t="n" s="688">
         <v>0.0</v>
@@ -7301,7 +7472,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="690">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -7350,31 +7521,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="719">
-        <v>0.8433183838198304</v>
+        <v>0.8167188475967675</v>
       </c>
       <c r="B6" t="n" s="720">
-        <v>0.8494799778092824</v>
+        <v>0.8398381691924137</v>
       </c>
       <c r="C6" t="n" s="721">
-        <v>0.919610164814839</v>
+        <v>0.9174972402708427</v>
       </c>
       <c r="D6" t="n" s="722">
-        <v>0.36076235656611605</v>
+        <v>0.34399063715118977</v>
       </c>
       <c r="E6" t="n" s="723">
-        <v>5.643634417838059</v>
+        <v>5.243684871468351</v>
       </c>
       <c r="F6" t="n" s="724">
-        <v>0.02398050014578219</v>
+        <v>0.025717385354610857</v>
       </c>
       <c r="G6" t="n" s="725">
-        <v>2.133663366336634</v>
+        <v>1.5841584158415842</v>
       </c>
       <c r="H6" t="n" s="726">
-        <v>0.9286847934280794</v>
+        <v>0.8249524438738668</v>
       </c>
       <c r="I6" t="n" s="727">
-        <v>0.3216930903135384</v>
+        <v>0.2880274989255646</v>
       </c>
     </row>
     <row r="7">
@@ -7421,292 +7592,292 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="741">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="746">
-        <v>0.8209008135725231</v>
+        <v>0.8078765450651838</v>
       </c>
       <c r="C11" t="n" s="747">
-        <v>0.8265425392578372</v>
+        <v>0.8200185241716419</v>
       </c>
       <c r="D11" t="n" s="748">
-        <v>0.8950576676328237</v>
+        <v>0.8992981005902659</v>
       </c>
       <c r="E11" t="n" s="749">
-        <v>0.3461726744920804</v>
+        <v>0.33609357828389225</v>
       </c>
       <c r="F11" t="n" s="750">
-        <v>4.765102266119628</v>
+        <v>4.556127348092559</v>
       </c>
       <c r="G11" t="n" s="751">
-        <v>0.027442142986979015</v>
+        <v>0.027880646042501483</v>
       </c>
       <c r="H11" t="n" s="752">
-        <v>0.0326406708133586</v>
+        <v>0.04105184875665889</v>
       </c>
       <c r="I11" t="n" s="753">
-        <v>0.3127764198008227</v>
+        <v>0.31015859580193406</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="741">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="746">
-        <v>0.8274354870275106</v>
+        <v>0.7829993018791087</v>
       </c>
       <c r="C12" t="n" s="747">
-        <v>0.8335249520006637</v>
+        <v>0.8134975340125532</v>
       </c>
       <c r="D12" t="n" s="748">
-        <v>0.9040834998191587</v>
+        <v>0.8947104506541229</v>
       </c>
       <c r="E12" t="n" s="749">
-        <v>0.35745982277124533</v>
+        <v>0.32644104896321124</v>
       </c>
       <c r="F12" t="n" s="750">
-        <v>5.006906212178938</v>
+        <v>4.361859397973369</v>
       </c>
       <c r="G12" t="n" s="751">
-        <v>0.02651161295678827</v>
+        <v>0.030299415644542013</v>
       </c>
       <c r="H12" t="n" s="752">
-        <v>0.03348880226086719</v>
+        <v>0.04164797237654831</v>
       </c>
       <c r="I12" t="n" s="753">
-        <v>0.32509826716040846</v>
+        <v>0.2724840921039435</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="741">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="746">
-        <v>0.8239649176750374</v>
+        <v>0.7897924983882787</v>
       </c>
       <c r="C13" t="n" s="747">
-        <v>0.8271018568676753</v>
+        <v>0.815020586296538</v>
       </c>
       <c r="D13" t="n" s="748">
-        <v>0.8974073191910368</v>
+        <v>0.8947523610867926</v>
       </c>
       <c r="E13" t="n" s="749">
-        <v>0.34705732308823145</v>
+        <v>0.3286591585869865</v>
       </c>
       <c r="F13" t="n" s="750">
-        <v>4.783752109093889</v>
+        <v>4.406006971149158</v>
       </c>
       <c r="G13" t="n" s="751">
-        <v>0.02697686714339396</v>
+        <v>0.029260546962006348</v>
       </c>
       <c r="H13" t="n" s="752">
-        <v>0.03271878219767739</v>
+        <v>0.04100210963349852</v>
       </c>
       <c r="I13" t="n" s="753">
-        <v>0.3127764198008227</v>
+        <v>0.2978670298371142</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="741">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n" s="746">
-        <v>0.830919183587083</v>
+        <v>0.8206129037067963</v>
       </c>
       <c r="C14" t="n" s="747">
-        <v>0.8362138017104608</v>
+        <v>0.8391688790227583</v>
       </c>
       <c r="D14" t="n" s="748">
-        <v>0.9052108281529097</v>
+        <v>0.915113706936051</v>
       </c>
       <c r="E14" t="n" s="749">
-        <v>0.36195194172336564</v>
+        <v>0.36698631527319514</v>
       </c>
       <c r="F14" t="n" s="750">
-        <v>5.105520553277709</v>
+        <v>5.217702108421569</v>
       </c>
       <c r="G14" t="n" s="751">
-        <v>0.025970984180398178</v>
+        <v>0.026498055317978275</v>
       </c>
       <c r="H14" t="n" s="752">
-        <v>0.033522389350525</v>
+        <v>0.051488647660972074</v>
       </c>
       <c r="I14" t="n" s="753">
-        <v>0.3232565058476898</v>
+        <v>0.3127764198008227</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="741">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n" s="746">
-        <v>0.8206380171426628</v>
+        <v>0.7942174610984023</v>
       </c>
       <c r="C15" t="n" s="747">
-        <v>0.8274603897892978</v>
+        <v>0.8187679393906239</v>
       </c>
       <c r="D15" t="n" s="748">
-        <v>0.8928370823063768</v>
+        <v>0.9015290003189674</v>
       </c>
       <c r="E15" t="n" s="749">
-        <v>0.3476261484997463</v>
+        <v>0.33421057292357975</v>
       </c>
       <c r="F15" t="n" s="750">
-        <v>4.795770598871865</v>
+        <v>4.517787507561257</v>
       </c>
       <c r="G15" t="n" s="751">
-        <v>0.027507414686120845</v>
+        <v>0.028471758738166313</v>
       </c>
       <c r="H15" t="n" s="752">
-        <v>0.03463102090518916</v>
+        <v>0.05792570812445781</v>
       </c>
       <c r="I15" t="n" s="753">
-        <v>0.3045455926215831</v>
+        <v>0.27460037220509215</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="741">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n" s="746">
-        <v>0.8287886261959876</v>
+        <v>0.8018678365487293</v>
       </c>
       <c r="C16" t="n" s="747">
-        <v>0.8357036718009951</v>
+        <v>0.8233683574434796</v>
       </c>
       <c r="D16" t="n" s="748">
-        <v>0.9003180529953412</v>
+        <v>0.9040127956512605</v>
       </c>
       <c r="E16" t="n" s="749">
-        <v>0.3610932763144683</v>
+        <v>0.3412143494234011</v>
       </c>
       <c r="F16" t="n" s="750">
-        <v>5.0865632906217115</v>
+        <v>4.661499749004543</v>
       </c>
       <c r="G16" t="n" s="751">
-        <v>0.02636619780331816</v>
+        <v>0.027353741057035367</v>
       </c>
       <c r="H16" t="n" s="752">
-        <v>0.034310631259623976</v>
+        <v>0.05614919189517882</v>
       </c>
       <c r="I16" t="n" s="753">
-        <v>0.31731764952998975</v>
+        <v>0.31032438474755253</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="741">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="746">
-        <v>0.8273126048251838</v>
+        <v>0.7970836429449026</v>
       </c>
       <c r="C17" t="n" s="747">
-        <v>0.8383981429379997</v>
+        <v>0.8275764522593946</v>
       </c>
       <c r="D17" t="n" s="748">
-        <v>0.8838354662757203</v>
+        <v>0.9191294406209776</v>
       </c>
       <c r="E17" t="n" s="749">
-        <v>0.36566325473801353</v>
+        <v>0.34781057962042905</v>
       </c>
       <c r="F17" t="n" s="750">
-        <v>5.188047700567816</v>
+        <v>4.799671872570465</v>
       </c>
       <c r="G17" t="n" s="751">
-        <v>0.026384146298349533</v>
+        <v>0.028622957849947082</v>
       </c>
       <c r="H17" t="n" s="752">
-        <v>0.02737360381159475</v>
+        <v>0.0632777668991571</v>
       </c>
       <c r="I17" t="n" s="753">
-        <v>0.32353485162625706</v>
+        <v>0.2724840921039435</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="741">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="746">
-        <v>0.8333390815562763</v>
+        <v>0.8175093818062833</v>
       </c>
       <c r="C18" t="n" s="747">
-        <v>0.8401396825310186</v>
+        <v>0.8433632163355567</v>
       </c>
       <c r="D18" t="n" s="748">
-        <v>0.8859582621777786</v>
+        <v>0.9242161655410571</v>
       </c>
       <c r="E18" t="n" s="749">
-        <v>0.3686630038520993</v>
+        <v>0.37431332892775804</v>
       </c>
       <c r="F18" t="n" s="750">
-        <v>5.255461116509014</v>
+        <v>5.384196461427988</v>
       </c>
       <c r="G18" t="n" s="751">
-        <v>0.02541335547511284</v>
+        <v>0.025229311984355723</v>
       </c>
       <c r="H18" t="n" s="752">
-        <v>0.027346219118551642</v>
+        <v>0.05630720360326094</v>
       </c>
       <c r="I18" t="n" s="753">
-        <v>0.3254497373730039</v>
+        <v>0.3003190648903844</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="741">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n" s="746">
-        <v>0.8314873528513851</v>
+        <v>0.7856638156823865</v>
       </c>
       <c r="C19" t="n" s="747">
-        <v>0.8392912654059448</v>
+        <v>0.818989545515723</v>
       </c>
       <c r="D19" t="n" s="748">
-        <v>0.9211517020340808</v>
+        <v>0.8900417639725657</v>
       </c>
       <c r="E19" t="n" s="749">
-        <v>0.36719706285775555</v>
+        <v>0.3345431232472007</v>
       </c>
       <c r="F19" t="n" s="750">
-        <v>5.222437147090765</v>
+        <v>4.524542783173126</v>
       </c>
       <c r="G19" t="n" s="751">
-        <v>0.02618512689205395</v>
+        <v>0.02978720117007169</v>
       </c>
       <c r="H19" t="n" s="752">
-        <v>0.039740277893487656</v>
+        <v>0.05682433973686666</v>
       </c>
       <c r="I19" t="n" s="753">
-        <v>0.31015859580193406</v>
+        <v>0.2724840921039435</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="741">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n" s="746">
-        <v>0.8434193552677075</v>
+        <v>0.7975648445003108</v>
       </c>
       <c r="C20" t="n" s="747">
-        <v>0.8491235530622224</v>
+        <v>0.8287192735927205</v>
       </c>
       <c r="D20" t="n" s="748">
-        <v>0.9246421411949195</v>
+        <v>0.8989297072308045</v>
       </c>
       <c r="E20" t="n" s="749">
-        <v>0.3847390573241548</v>
+        <v>0.3496343162622437</v>
       </c>
       <c r="F20" t="n" s="750">
-        <v>5.627939750015494</v>
+        <v>4.8383685133501375</v>
       </c>
       <c r="G20" t="n" s="751">
-        <v>0.024239005138222414</v>
+        <v>0.028202706391601846</v>
       </c>
       <c r="H20" t="n" s="752">
-        <v>0.03539232801046066</v>
+        <v>0.05620967781864771</v>
       </c>
       <c r="I20" t="n" s="753">
-        <v>0.32509826716040846</v>
+        <v>0.31015859580193406</v>
       </c>
     </row>
     <row r="21">
@@ -7721,25 +7892,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="757">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s" s="771">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s" s="771">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s" s="771">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s" s="771">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s" s="771">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s" s="771">
         <v>9</v>
@@ -7750,262 +7921,262 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="767">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n" s="772">
         <v>101.0</v>
       </c>
       <c r="C25" t="n" s="773">
-        <v>0.7143974752302837</v>
+        <v>0.6748192582421305</v>
       </c>
       <c r="D25" t="n" s="774">
-        <v>0.7322756114954745</v>
+        <v>0.6844148297774135</v>
       </c>
       <c r="E25" t="n" s="775">
-        <v>0.7208045756951345</v>
+        <v>0.6993693566560772</v>
       </c>
       <c r="F25" t="n" s="776">
-        <v>0.6310297448031472</v>
+        <v>0.6434241216261626</v>
       </c>
       <c r="G25" t="n" s="777">
-        <v>3.0396039603960396</v>
+        <v>0.27722772277227725</v>
       </c>
       <c r="H25" t="n" s="778">
-        <v>1.348486500334415</v>
+        <v>0.4498624652310552</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="767">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="772">
         <v>101.0</v>
       </c>
       <c r="C26" t="n" s="773">
-        <v>0.6565669584762795</v>
+        <v>0.7463034769823351</v>
       </c>
       <c r="D26" t="n" s="774">
-        <v>0.6699232800381767</v>
+        <v>0.7387108657162189</v>
       </c>
       <c r="E26" t="n" s="775">
-        <v>0.6404086220071366</v>
+        <v>0.7591926654989043</v>
       </c>
       <c r="F26" t="n" s="776">
-        <v>0.554289957032464</v>
+        <v>0.6398988514974498</v>
       </c>
       <c r="G26" t="n" s="777">
-        <v>3.485148514851485</v>
+        <v>0.900990099009901</v>
       </c>
       <c r="H26" t="n" s="778">
-        <v>1.4325771280188624</v>
+        <v>1.584329198715024</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="767">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="772">
         <v>101.0</v>
       </c>
       <c r="C27" t="n" s="773">
-        <v>0.6946686819147634</v>
+        <v>0.7310435844068746</v>
       </c>
       <c r="D27" t="n" s="774">
-        <v>0.7273886461499175</v>
+        <v>0.7262338707392981</v>
       </c>
       <c r="E27" t="n" s="775">
-        <v>0.7111721037042021</v>
+        <v>0.7489164676437874</v>
       </c>
       <c r="F27" t="n" s="776">
-        <v>0.6219138088123327</v>
+        <v>0.599405974713401</v>
       </c>
       <c r="G27" t="n" s="777">
-        <v>3.257425742574257</v>
+        <v>1.0594059405940595</v>
       </c>
       <c r="H27" t="n" s="778">
-        <v>1.1458923627159285</v>
+        <v>1.8156088905830894</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="767">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="772">
         <v>101.0</v>
       </c>
       <c r="C28" t="n" s="773">
-        <v>0.6167258890359851</v>
+        <v>0.40791242706694325</v>
       </c>
       <c r="D28" t="n" s="774">
-        <v>0.6451079694813692</v>
+        <v>0.5106413967120057</v>
       </c>
       <c r="E28" t="n" s="775">
-        <v>0.6122723875533126</v>
+        <v>0.45373003591938427</v>
       </c>
       <c r="F28" t="n" s="776">
-        <v>0.5173949906861554</v>
+        <v>0.3816345933122027</v>
       </c>
       <c r="G28" t="n" s="777">
-        <v>3.4455445544554455</v>
+        <v>0.9306930693069307</v>
       </c>
       <c r="H28" t="n" s="778">
-        <v>1.3074803824513197</v>
+        <v>0.25524207108446123</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="767">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="772">
         <v>101.0</v>
       </c>
       <c r="C29" t="n" s="773">
-        <v>0.7163016110901828</v>
+        <v>0.662179978217443</v>
       </c>
       <c r="D29" t="n" s="774">
-        <v>0.7242463475176244</v>
+        <v>0.6950068438827149</v>
       </c>
       <c r="E29" t="n" s="775">
-        <v>0.7129275634303112</v>
+        <v>0.669837477805192</v>
       </c>
       <c r="F29" t="n" s="776">
-        <v>0.6315871718269306</v>
+        <v>0.5540496799988112</v>
       </c>
       <c r="G29" t="n" s="777">
-        <v>1.6633663366336633</v>
+        <v>3.0396039603960396</v>
       </c>
       <c r="H29" t="n" s="778">
-        <v>1.3731513224897849</v>
+        <v>1.348486500334415</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="767">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="772">
         <v>101.0</v>
       </c>
       <c r="C30" t="n" s="773">
-        <v>0.6383277536623919</v>
+        <v>0.6124195931358623</v>
       </c>
       <c r="D30" t="n" s="774">
-        <v>0.6498513988102204</v>
+        <v>0.6556101958220975</v>
       </c>
       <c r="E30" t="n" s="775">
-        <v>0.6282604101237036</v>
+        <v>0.6253448407491857</v>
       </c>
       <c r="F30" t="n" s="776">
-        <v>0.5428707551820056</v>
+        <v>0.485287016615304</v>
       </c>
       <c r="G30" t="n" s="777">
-        <v>1.5643564356435644</v>
+        <v>3.485148514851485</v>
       </c>
       <c r="H30" t="n" s="778">
-        <v>1.3070259491238758</v>
+        <v>1.4325771280188624</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="767">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B31" t="n" s="772">
         <v>101.0</v>
       </c>
       <c r="C31" t="n" s="773">
-        <v>0.6690259952168852</v>
+        <v>0.6562247541679554</v>
       </c>
       <c r="D31" t="n" s="774">
-        <v>0.6246059778792681</v>
+        <v>0.61850601929594</v>
       </c>
       <c r="E31" t="n" s="775">
-        <v>0.639163883534987</v>
+        <v>0.5360005706360199</v>
       </c>
       <c r="F31" t="n" s="776">
-        <v>0.55696800140131</v>
+        <v>0.5293262347838803</v>
       </c>
       <c r="G31" t="n" s="777">
-        <v>0.900990099009901</v>
+        <v>1.1386138613861385</v>
       </c>
       <c r="H31" t="n" s="778">
-        <v>1.584329198715024</v>
+        <v>1.5299000161467875</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="767">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B32" t="n" s="772">
         <v>101.0</v>
       </c>
       <c r="C32" t="n" s="773">
-        <v>0.6547426751727093</v>
+        <v>0.5003417696875574</v>
       </c>
       <c r="D32" t="n" s="774">
-        <v>0.6080347991878822</v>
+        <v>0.46942652095297577</v>
       </c>
       <c r="E32" t="n" s="775">
-        <v>0.6212842305479586</v>
+        <v>0.37310523109594435</v>
       </c>
       <c r="F32" t="n" s="776">
-        <v>0.5192502188233526</v>
+        <v>0.34906185573778714</v>
       </c>
       <c r="G32" t="n" s="777">
-        <v>1.0594059405940595</v>
+        <v>1.7821782178217822</v>
       </c>
       <c r="H32" t="n" s="778">
-        <v>1.8156088905830894</v>
+        <v>1.4669966625458941</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="767">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B33" t="n" s="772">
         <v>101.0</v>
       </c>
       <c r="C33" t="n" s="773">
-        <v>0.629427330441092</v>
+        <v>0.724421840975788</v>
       </c>
       <c r="D33" t="n" s="774">
-        <v>0.6161329331465624</v>
+        <v>0.6931362290704812</v>
       </c>
       <c r="E33" t="n" s="775">
-        <v>0.5356257257666832</v>
+        <v>0.6808751015060718</v>
       </c>
       <c r="F33" t="n" s="776">
-        <v>0.5132391579513381</v>
+        <v>0.6291429175840819</v>
       </c>
       <c r="G33" t="n" s="777">
-        <v>1.1386138613861385</v>
+        <v>1.6633663366336633</v>
       </c>
       <c r="H33" t="n" s="778">
-        <v>1.5299000161467875</v>
+        <v>1.3731513224897849</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="767">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B34" t="n" s="772">
         <v>101.0</v>
       </c>
       <c r="C34" t="n" s="773">
-        <v>0.5119035982501816</v>
+        <v>0.6343980469701358</v>
       </c>
       <c r="D34" t="n" s="774">
-        <v>0.5192276541213868</v>
+        <v>0.6082473951615663</v>
       </c>
       <c r="E34" t="n" s="775">
-        <v>0.4274458545681369</v>
+        <v>0.5838740735457726</v>
       </c>
       <c r="F34" t="n" s="776">
-        <v>0.3809477296369079</v>
+        <v>0.5243092970536106</v>
       </c>
       <c r="G34" t="n" s="777">
-        <v>1.7821782178217822</v>
+        <v>1.5643564356435644</v>
       </c>
       <c r="H34" t="n" s="778">
-        <v>1.4669966625458941</v>
+        <v>1.3070259491238758</v>
       </c>
     </row>
     <row r="35">
@@ -8020,54 +8191,54 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="782">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s" s="796">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s" s="796">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s" s="796">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s" s="796">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s" s="796">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="796">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s" s="796">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="792">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B39" t="n" s="797">
-        <v>0.06930693069306931</v>
+        <v>0.7227722772277227</v>
       </c>
       <c r="C39" t="n" s="798">
-        <v>0.1188118811881188</v>
+        <v>0.27722772277227725</v>
       </c>
       <c r="D39" t="n" s="799">
-        <v>0.0297029702970297</v>
+        <v>0.0</v>
       </c>
       <c r="E39" t="n" s="800">
-        <v>0.3465346534653465</v>
+        <v>0.0</v>
       </c>
       <c r="F39" t="n" s="801">
-        <v>0.3564356435643564</v>
+        <v>0.0</v>
       </c>
       <c r="G39" t="n" s="802">
-        <v>0.07920792079207921</v>
+        <v>0.0</v>
       </c>
       <c r="H39" t="n" s="803">
         <v>0.0</v>
@@ -8075,25 +8246,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="792">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B40" t="n" s="797">
-        <v>0.06930693069306931</v>
+        <v>0.7227722772277227</v>
       </c>
       <c r="C40" t="n" s="798">
-        <v>0.019801980198019802</v>
+        <v>0.039603960396039604</v>
       </c>
       <c r="D40" t="n" s="799">
+        <v>0.009900990099009901</v>
+      </c>
+      <c r="E40" t="n" s="800">
         <v>0.09900990099009901</v>
       </c>
-      <c r="E40" t="n" s="800">
-        <v>0.297029702970297</v>
-      </c>
       <c r="F40" t="n" s="801">
-        <v>0.19801980198019803</v>
+        <v>0.09900990099009901</v>
       </c>
       <c r="G40" t="n" s="802">
-        <v>0.31683168316831684</v>
+        <v>0.0297029702970297</v>
       </c>
       <c r="H40" t="n" s="803">
         <v>0.0</v>
@@ -8101,25 +8272,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="792">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B41" t="n" s="797">
-        <v>0.039603960396039604</v>
+        <v>0.7227722772277227</v>
       </c>
       <c r="C41" t="n" s="798">
-        <v>0.06930693069306931</v>
+        <v>0.0</v>
       </c>
       <c r="D41" t="n" s="799">
-        <v>0.0297029702970297</v>
+        <v>0.04950495049504951</v>
       </c>
       <c r="E41" t="n" s="800">
-        <v>0.39603960396039606</v>
+        <v>0.04950495049504951</v>
       </c>
       <c r="F41" t="n" s="801">
-        <v>0.38613861386138615</v>
+        <v>0.07920792079207921</v>
       </c>
       <c r="G41" t="n" s="802">
-        <v>0.07920792079207921</v>
+        <v>0.09900990099009901</v>
       </c>
       <c r="H41" t="n" s="803">
         <v>0.0</v>
@@ -8127,25 +8298,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="792">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B42" t="n" s="797">
-        <v>0.039603960396039604</v>
+        <v>0.06930693069306931</v>
       </c>
       <c r="C42" t="n" s="798">
-        <v>0.019801980198019802</v>
+        <v>0.9306930693069307</v>
       </c>
       <c r="D42" t="n" s="799">
-        <v>0.10891089108910891</v>
+        <v>0.0</v>
       </c>
       <c r="E42" t="n" s="800">
-        <v>0.43564356435643564</v>
+        <v>0.0</v>
       </c>
       <c r="F42" t="n" s="801">
-        <v>0.07920792079207921</v>
+        <v>0.0</v>
       </c>
       <c r="G42" t="n" s="802">
-        <v>0.31683168316831684</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n" s="803">
         <v>0.0</v>
@@ -8153,25 +8324,25 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="792">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B43" t="n" s="797">
-        <v>0.27722772277227725</v>
+        <v>0.06930693069306931</v>
       </c>
       <c r="C43" t="n" s="798">
-        <v>0.19801980198019803</v>
+        <v>0.1188118811881188</v>
       </c>
       <c r="D43" t="n" s="799">
-        <v>0.2376237623762376</v>
+        <v>0.0297029702970297</v>
       </c>
       <c r="E43" t="n" s="800">
-        <v>0.15841584158415842</v>
+        <v>0.3465346534653465</v>
       </c>
       <c r="F43" t="n" s="801">
-        <v>0.12871287128712872</v>
+        <v>0.3564356435643564</v>
       </c>
       <c r="G43" t="n" s="802">
-        <v>0.0</v>
+        <v>0.07920792079207921</v>
       </c>
       <c r="H43" t="n" s="803">
         <v>0.0</v>
@@ -8179,25 +8350,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="792">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B44" t="n" s="797">
+        <v>0.06930693069306931</v>
+      </c>
+      <c r="C44" t="n" s="798">
+        <v>0.019801980198019802</v>
+      </c>
+      <c r="D44" t="n" s="799">
+        <v>0.09900990099009901</v>
+      </c>
+      <c r="E44" t="n" s="800">
         <v>0.297029702970297</v>
       </c>
-      <c r="C44" t="n" s="798">
-        <v>0.1782178217821782</v>
-      </c>
-      <c r="D44" t="n" s="799">
-        <v>0.27722772277227725</v>
-      </c>
-      <c r="E44" t="n" s="800">
-        <v>0.15841584158415842</v>
-      </c>
       <c r="F44" t="n" s="801">
-        <v>0.0891089108910891</v>
+        <v>0.19801980198019803</v>
       </c>
       <c r="G44" t="n" s="802">
-        <v>0.0</v>
+        <v>0.31683168316831684</v>
       </c>
       <c r="H44" t="n" s="803">
         <v>0.0</v>
@@ -8205,25 +8376,25 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="792">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B45" t="n" s="797">
-        <v>0.7227722772277227</v>
+        <v>0.5544554455445545</v>
       </c>
       <c r="C45" t="n" s="798">
-        <v>0.039603960396039604</v>
+        <v>0.15841584158415842</v>
       </c>
       <c r="D45" t="n" s="799">
-        <v>0.009900990099009901</v>
+        <v>0.019801980198019802</v>
       </c>
       <c r="E45" t="n" s="800">
-        <v>0.09900990099009901</v>
+        <v>0.12871287128712872</v>
       </c>
       <c r="F45" t="n" s="801">
-        <v>0.09900990099009901</v>
+        <v>0.13861386138613863</v>
       </c>
       <c r="G45" t="n" s="802">
-        <v>0.0297029702970297</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="803">
         <v>0.0</v>
@@ -8231,25 +8402,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="792">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B46" t="n" s="797">
-        <v>0.7227722772277227</v>
+        <v>0.27722772277227725</v>
       </c>
       <c r="C46" t="n" s="798">
+        <v>0.2376237623762376</v>
+      </c>
+      <c r="D46" t="n" s="799">
+        <v>0.039603960396039604</v>
+      </c>
+      <c r="E46" t="n" s="800">
+        <v>0.31683168316831684</v>
+      </c>
+      <c r="F46" t="n" s="801">
+        <v>0.12871287128712872</v>
+      </c>
+      <c r="G46" t="n" s="802">
         <v>0.0</v>
-      </c>
-      <c r="D46" t="n" s="799">
-        <v>0.04950495049504951</v>
-      </c>
-      <c r="E46" t="n" s="800">
-        <v>0.04950495049504951</v>
-      </c>
-      <c r="F46" t="n" s="801">
-        <v>0.07920792079207921</v>
-      </c>
-      <c r="G46" t="n" s="802">
-        <v>0.09900990099009901</v>
       </c>
       <c r="H46" t="n" s="803">
         <v>0.0</v>
@@ -8257,22 +8428,22 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="792">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B47" t="n" s="797">
-        <v>0.5544554455445545</v>
+        <v>0.27722772277227725</v>
       </c>
       <c r="C47" t="n" s="798">
+        <v>0.19801980198019803</v>
+      </c>
+      <c r="D47" t="n" s="799">
+        <v>0.2376237623762376</v>
+      </c>
+      <c r="E47" t="n" s="800">
         <v>0.15841584158415842</v>
       </c>
-      <c r="D47" t="n" s="799">
-        <v>0.019801980198019802</v>
-      </c>
-      <c r="E47" t="n" s="800">
+      <c r="F47" t="n" s="801">
         <v>0.12871287128712872</v>
-      </c>
-      <c r="F47" t="n" s="801">
-        <v>0.13861386138613863</v>
       </c>
       <c r="G47" t="n" s="802">
         <v>0.0</v>
@@ -8283,22 +8454,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="792">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B48" t="n" s="797">
+        <v>0.297029702970297</v>
+      </c>
+      <c r="C48" t="n" s="798">
+        <v>0.1782178217821782</v>
+      </c>
+      <c r="D48" t="n" s="799">
         <v>0.27722772277227725</v>
       </c>
-      <c r="C48" t="n" s="798">
-        <v>0.2376237623762376</v>
-      </c>
-      <c r="D48" t="n" s="799">
-        <v>0.039603960396039604</v>
-      </c>
       <c r="E48" t="n" s="800">
-        <v>0.31683168316831684</v>
+        <v>0.15841584158415842</v>
       </c>
       <c r="F48" t="n" s="801">
-        <v>0.12871287128712872</v>
+        <v>0.0891089108910891</v>
       </c>
       <c r="G48" t="n" s="802">
         <v>0.0</v>
